--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\State's Secret\Internsheeepppppp\Project\ACCMart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\acctest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>loginUsername</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>Application1!</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
